--- a/data/trans_orig/PCS12_SP_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>192088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171785</v>
+        <v>170747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214417</v>
+        <v>214885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4054410802710954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.362587773152818</v>
+        <v>0.360396512247852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4525695735220395</v>
+        <v>0.4535586306104385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -765,19 +765,19 @@
         <v>148807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131715</v>
+        <v>131552</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166106</v>
+        <v>166698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4852182429780214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4294869896817703</v>
+        <v>0.4289547655970153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5416273296644468</v>
+        <v>0.5435570982210777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>333</v>
@@ -786,19 +786,19 @@
         <v>340895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>310674</v>
+        <v>313129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366409</v>
+        <v>367333</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.436789503697643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3980666926607019</v>
+        <v>0.4012121550437815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4694801488512877</v>
+        <v>0.470664046978477</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>281688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259359</v>
+        <v>258891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301991</v>
+        <v>303029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5945589197289046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5474304264779604</v>
+        <v>0.5464413693895613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6374122268471819</v>
+        <v>0.6396034877521478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -836,19 +836,19 @@
         <v>157873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140574</v>
+        <v>139982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174965</v>
+        <v>175128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5147817570219786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4583726703355532</v>
+        <v>0.4564429017789223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5705130103182298</v>
+        <v>0.5710452344029847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>420</v>
@@ -857,19 +857,19 @@
         <v>439562</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414048</v>
+        <v>413124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469783</v>
+        <v>467328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.563210496302357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5305198511487121</v>
+        <v>0.529335953021523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6019333073392981</v>
+        <v>0.5987878449562185</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>144994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125892</v>
+        <v>127818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165028</v>
+        <v>164625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3951491212711646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3430929924558291</v>
+        <v>0.348340259250203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4497497039031072</v>
+        <v>0.4486511360760725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -982,19 +982,19 @@
         <v>151003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132945</v>
+        <v>132869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169186</v>
+        <v>172615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4060687036095172</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3575083857067182</v>
+        <v>0.3573032044391886</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4549650111706924</v>
+        <v>0.4641861370718197</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>289</v>
@@ -1003,19 +1003,19 @@
         <v>295996</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268274</v>
+        <v>270941</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322211</v>
+        <v>322665</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4006453509469535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3631215489721753</v>
+        <v>0.3667317536835423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.436128760712769</v>
+        <v>0.4367431272039461</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>221940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>201906</v>
+        <v>202309</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>241042</v>
+        <v>239116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6048508787288354</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5502502960968928</v>
+        <v>0.5513488639239275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6569070075441709</v>
+        <v>0.6516597407497969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>216</v>
@@ -1053,19 +1053,19 @@
         <v>220862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>202679</v>
+        <v>199250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>238920</v>
+        <v>238996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5939312963904828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5450349888293076</v>
+        <v>0.5358138629281803</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6424916142932817</v>
+        <v>0.6426967955608114</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>424</v>
@@ -1074,19 +1074,19 @@
         <v>442803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>416588</v>
+        <v>416134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>470525</v>
+        <v>467858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5993546490530465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.563871239287231</v>
+        <v>0.563256872796054</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6368784510278248</v>
+        <v>0.6332682463164577</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>237678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214606</v>
+        <v>216637</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262360</v>
+        <v>260254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.438205976483646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3956679459933288</v>
+        <v>0.3994134292069377</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4837124946406105</v>
+        <v>0.4798292252723265</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -1199,19 +1199,19 @@
         <v>93999</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81448</v>
+        <v>80336</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105843</v>
+        <v>106101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5602440172798281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4854376308132617</v>
+        <v>0.4788088250625122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6308383378561441</v>
+        <v>0.6323725115874963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>331</v>
@@ -1220,19 +1220,19 @@
         <v>331677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>305473</v>
+        <v>304977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>360954</v>
+        <v>359931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4670381524384234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4301403094083661</v>
+        <v>0.4294412900492574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5082632490864215</v>
+        <v>0.5068226043137852</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>304711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280029</v>
+        <v>282135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327783</v>
+        <v>325752</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.561794023516354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5162875053593895</v>
+        <v>0.5201707747276736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6043320540066711</v>
+        <v>0.6005865707930623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1270,19 +1270,19 @@
         <v>73783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61939</v>
+        <v>61681</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86334</v>
+        <v>87446</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4397559827201719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3691616621438563</v>
+        <v>0.3676274884125036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5145623691867384</v>
+        <v>0.5211911749374878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -1291,19 +1291,19 @@
         <v>378494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>349217</v>
+        <v>350240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>404698</v>
+        <v>405194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5329618475615766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4917367509135784</v>
+        <v>0.4931773956862148</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5698596905916339</v>
+        <v>0.5705587099507425</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>592477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>557676</v>
+        <v>559906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>628623</v>
+        <v>625483</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4784468851167434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4503436147724057</v>
+        <v>0.4521446289716989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5076362663426772</v>
+        <v>0.5051002442890064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>377</v>
@@ -1416,19 +1416,19 @@
         <v>386409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>357673</v>
+        <v>361179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>413107</v>
+        <v>414823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5409728431550601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5007431713043634</v>
+        <v>0.5056513297178034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5783501876268347</v>
+        <v>0.5807528906036937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>972</v>
@@ -1437,19 +1437,19 @@
         <v>978886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>937416</v>
+        <v>938844</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1026686</v>
+        <v>1028186</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5013194259818349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4800809852790269</v>
+        <v>0.4808122609276173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5257993654666879</v>
+        <v>0.5265672331765292</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>645857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609711</v>
+        <v>612851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>680658</v>
+        <v>678428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5215531148832566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4923637336573228</v>
+        <v>0.4948997557109938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5496563852275943</v>
+        <v>0.5478553710283011</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -1487,19 +1487,19 @@
         <v>327876</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301178</v>
+        <v>299462</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356612</v>
+        <v>353106</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4590271568449399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4216498123731654</v>
+        <v>0.4192471093963063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4992568286956366</v>
+        <v>0.4943486702821967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>946</v>
@@ -1508,19 +1508,19 @@
         <v>973734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>925934</v>
+        <v>924434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1015204</v>
+        <v>1013776</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4986805740181651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4742006345333121</v>
+        <v>0.4734327668234707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5199190147209731</v>
+        <v>0.5191877390723827</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>173231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>154940</v>
+        <v>155733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192899</v>
+        <v>192389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4941621854733058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4419841065972575</v>
+        <v>0.4442481710694845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.550266184035633</v>
+        <v>0.5488127205724382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -1633,19 +1633,19 @@
         <v>332654</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309933</v>
+        <v>309936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>358014</v>
+        <v>356903</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5848844969144625</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5449350190274895</v>
+        <v>0.5449399332544955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6294725685687137</v>
+        <v>0.6275194843968938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>484</v>
@@ -1654,19 +1654,19 @@
         <v>505885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>471381</v>
+        <v>474629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>537535</v>
+        <v>536512</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5502897635676256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5127572857743542</v>
+        <v>0.5162901873757862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.584717336102246</v>
+        <v>0.5836045433966062</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>177324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157656</v>
+        <v>158166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195615</v>
+        <v>194822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5058378145266942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.449733815964367</v>
+        <v>0.4511872794275618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5580158934027425</v>
+        <v>0.5557518289305156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>226</v>
@@ -1704,19 +1704,19 @@
         <v>236098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210738</v>
+        <v>211849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>258819</v>
+        <v>258816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4151155030855375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3705274314312867</v>
+        <v>0.3724805156031063</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4550649809725106</v>
+        <v>0.4550600667455046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -1725,19 +1725,19 @@
         <v>413422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>381772</v>
+        <v>382795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>447926</v>
+        <v>444678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4497102364323744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.415282663897754</v>
+        <v>0.416395456603394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4872427142256458</v>
+        <v>0.4837098126242139</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>52659</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39697</v>
+        <v>40316</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65936</v>
+        <v>65874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1765893298721057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1331217759670625</v>
+        <v>0.1351989873041051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2211140220446948</v>
+        <v>0.2209044465642529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>792</v>
@@ -1850,19 +1850,19 @@
         <v>814002</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>781617</v>
+        <v>778273</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>847655</v>
+        <v>847262</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6518484433519188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.625914741160434</v>
+        <v>0.6232364383039881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6787971520997041</v>
+        <v>0.6784823358901954</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>845</v>
@@ -1871,19 +1871,19 @@
         <v>866661</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>830274</v>
+        <v>828448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>905696</v>
+        <v>902504</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5602348955134591</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5367136126610074</v>
+        <v>0.5355331889526256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5854680764393189</v>
+        <v>0.5834050589460931</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>245542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232265</v>
+        <v>232327</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258504</v>
+        <v>257885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8234106701278944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7788859779553049</v>
+        <v>0.7790955534357472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8668782240329374</v>
+        <v>0.8648010126958949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>446</v>
@@ -1921,19 +1921,19 @@
         <v>434758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>401105</v>
+        <v>401498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>467143</v>
+        <v>470487</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3481515566480811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3212028479002958</v>
+        <v>0.3215176641098046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3740852588395658</v>
+        <v>0.3767635616960118</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>699</v>
@@ -1942,19 +1942,19 @@
         <v>680299</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>641264</v>
+        <v>644456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>716686</v>
+        <v>718512</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4397651044865409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.414531923560681</v>
+        <v>0.4165949410539069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4632863873389926</v>
+        <v>0.4644668110473742</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1393128</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1336325</v>
+        <v>1338986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1450317</v>
+        <v>1447380</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4260082002144109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4086384830836793</v>
+        <v>0.4094519774460779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4434961737845433</v>
+        <v>0.4425981663782144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1868</v>
@@ -2067,19 +2067,19 @@
         <v>1926874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1865504</v>
+        <v>1864452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1978921</v>
+        <v>1984650</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5703975248947688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5522306638778772</v>
+        <v>0.551919330871489</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5858048038257199</v>
+        <v>0.5875005928433691</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3254</v>
@@ -2088,19 +2088,19 @@
         <v>3320001</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3240331</v>
+        <v>3247233</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3406037</v>
+        <v>3401578</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4993749281701992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4873914167618719</v>
+        <v>0.4884296128865869</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5123158831052516</v>
+        <v>0.511645265473761</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1877062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1819873</v>
+        <v>1822810</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1933865</v>
+        <v>1931204</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5739917997855891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5565038262154567</v>
+        <v>0.5574018336217856</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5913615169163207</v>
+        <v>0.590548022553922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1428</v>
@@ -2138,19 +2138,19 @@
         <v>1451250</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1399203</v>
+        <v>1393474</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1512620</v>
+        <v>1513672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4296024751052311</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4141951961742799</v>
+        <v>0.4124994071566311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4477693361221228</v>
+        <v>0.4480806691285111</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3249</v>
@@ -2159,19 +2159,19 @@
         <v>3328313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3242277</v>
+        <v>3246736</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3407983</v>
+        <v>3401081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5006250718298008</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.487684116894748</v>
+        <v>0.4883547345262392</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.512608583238128</v>
+        <v>0.5115703871134138</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>158796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140559</v>
+        <v>138175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181268</v>
+        <v>181658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3632025908752416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3214907424047749</v>
+        <v>0.3160376619152574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.414599705608821</v>
+        <v>0.4154926795040315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -2526,19 +2526,19 @@
         <v>134027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114248</v>
+        <v>116256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154265</v>
+        <v>154279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4262227585877986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3633225623433428</v>
+        <v>0.3697069355915955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4905814798806988</v>
+        <v>0.490624232349232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -2547,19 +2547,19 @@
         <v>292824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265443</v>
+        <v>264413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>322696</v>
+        <v>320189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3895666745456322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3531393765661641</v>
+        <v>0.3517701345366933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4293082460005361</v>
+        <v>0.4259733753543211</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>278415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255943</v>
+        <v>255553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296652</v>
+        <v>299036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6367974091247584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5854002943911789</v>
+        <v>0.5845073204959684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.678509257595225</v>
+        <v>0.6839623380847426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -2597,19 +2597,19 @@
         <v>180427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>160189</v>
+        <v>160175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200206</v>
+        <v>198198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5737772414122014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5094185201193002</v>
+        <v>0.509375767650768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.636677437656657</v>
+        <v>0.6302930644084046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -2618,19 +2618,19 @@
         <v>458841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>428969</v>
+        <v>431476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>486222</v>
+        <v>487252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6104333254543678</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5706917539994641</v>
+        <v>0.5740266246456789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6468606234338361</v>
+        <v>0.6482298654633066</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>186205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>164339</v>
+        <v>165624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207884</v>
+        <v>210079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4446185849065727</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3924074883693568</v>
+        <v>0.395476003960973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4963841957099603</v>
+        <v>0.5016257155929976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -2743,19 +2743,19 @@
         <v>138609</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118524</v>
+        <v>118315</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156439</v>
+        <v>157989</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4100720347908117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3506503690722552</v>
+        <v>0.3500328908865956</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4628213016392444</v>
+        <v>0.4674083634604692</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>290</v>
@@ -2764,19 +2764,19 @@
         <v>324814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>298231</v>
+        <v>297236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354924</v>
+        <v>353244</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4291891543420444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.394064477697451</v>
+        <v>0.3927501025750362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4689755377015331</v>
+        <v>0.4667555573994066</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>232592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>210913</v>
+        <v>208718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>254458</v>
+        <v>253173</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5553814150934273</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5036158042900398</v>
+        <v>0.4983742844070024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6075925116306432</v>
+        <v>0.604523996039027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>182</v>
@@ -2814,19 +2814,19 @@
         <v>199402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>181572</v>
+        <v>180022</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>219487</v>
+        <v>219696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5899279652091883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5371786983607555</v>
+        <v>0.5325916365395308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6493496309277447</v>
+        <v>0.6499671091134053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>390</v>
@@ -2835,19 +2835,19 @@
         <v>431994</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>401884</v>
+        <v>403564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>458577</v>
+        <v>459572</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5708108456579557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5310244622984669</v>
+        <v>0.5332444426005933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.605935522302549</v>
+        <v>0.6072498974249637</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>313445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286729</v>
+        <v>289428</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339427</v>
+        <v>338662</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4979940132766503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4555479625876921</v>
+        <v>0.4598365262297789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5392731116784695</v>
+        <v>0.5380590969758463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -2960,19 +2960,19 @@
         <v>145610</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128565</v>
+        <v>129810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161699</v>
+        <v>161763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5597622724044354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4942371376535811</v>
+        <v>0.4990223276894571</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6216113615326462</v>
+        <v>0.6218555464051115</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>420</v>
@@ -2981,19 +2981,19 @@
         <v>459055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>427891</v>
+        <v>426437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>489954</v>
+        <v>489445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5160569056442273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4810229862236876</v>
+        <v>0.4793885830462605</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5507923497056892</v>
+        <v>0.5502205293964507</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>315970</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289988</v>
+        <v>290753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>342686</v>
+        <v>339987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5020059867233497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4607268883215305</v>
+        <v>0.4619409030241537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5444520374123079</v>
+        <v>0.5401634737702212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -3031,19 +3031,19 @@
         <v>114519</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98430</v>
+        <v>98366</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131564</v>
+        <v>130319</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4402377275955646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3783886384673539</v>
+        <v>0.3781444535948886</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.505762862346419</v>
+        <v>0.500977672310543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -3052,19 +3052,19 @@
         <v>430489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>399590</v>
+        <v>400099</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>461653</v>
+        <v>463107</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4839430943557727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4492076502943108</v>
+        <v>0.4497794706035493</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5189770137763126</v>
+        <v>0.5206114169537395</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>547361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>509526</v>
+        <v>510531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>580317</v>
+        <v>581424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4722664112410104</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4396224153637113</v>
+        <v>0.4404890307996852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5007014404392484</v>
+        <v>0.5016562236749148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -3177,19 +3177,19 @@
         <v>366985</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>338024</v>
+        <v>337433</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394036</v>
+        <v>395869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4786826443235405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4409062513359556</v>
+        <v>0.4401359653405958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5139663104505785</v>
+        <v>0.5163574534109866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>844</v>
@@ -3198,19 +3198,19 @@
         <v>914347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>869398</v>
+        <v>868760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>963300</v>
+        <v>958785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4748208786704534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4514788065039686</v>
+        <v>0.4511477699788742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5002424418679373</v>
+        <v>0.4978976698156015</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>611648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>578692</v>
+        <v>577585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>649483</v>
+        <v>648478</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5277335887589896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4992985595607516</v>
+        <v>0.4983437763250854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5603775846362887</v>
+        <v>0.5595109692003148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -3248,19 +3248,19 @@
         <v>399672</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372621</v>
+        <v>370788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>428633</v>
+        <v>429224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5213173556764594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4860336895494216</v>
+        <v>0.4836425465890135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5590937486640447</v>
+        <v>0.5598640346594043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>950</v>
@@ -3269,19 +3269,19 @@
         <v>1011320</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962367</v>
+        <v>966882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1056269</v>
+        <v>1056907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5251791213295466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4997575581320627</v>
+        <v>0.5021023301843988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5485211934960315</v>
+        <v>0.5488522300211259</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>238558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>216113</v>
+        <v>215260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262740</v>
+        <v>261315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.467214045207737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4232571832274988</v>
+        <v>0.4215863938936208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5145760163483364</v>
+        <v>0.5117844351527157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>437</v>
@@ -3394,19 +3394,19 @@
         <v>473796</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>445979</v>
+        <v>445147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>501353</v>
+        <v>501726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6221703998863053</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.585641505141721</v>
+        <v>0.5845487052714524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.658357044928055</v>
+        <v>0.6588458785396364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -3415,19 +3415,19 @@
         <v>712354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>676499</v>
+        <v>679647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>748644</v>
+        <v>750304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5599748020545613</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5317895365029829</v>
+        <v>0.5342639422889672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5885021690140597</v>
+        <v>0.5898067724425663</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>272038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>247856</v>
+        <v>249281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>294483</v>
+        <v>295336</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5327859547922631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4854239836516637</v>
+        <v>0.4882155648472843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5767428167725013</v>
+        <v>0.5784136061063793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>266</v>
@@ -3465,19 +3465,19 @@
         <v>287726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>260169</v>
+        <v>259796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>315543</v>
+        <v>316375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3778296001136948</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3416429550719451</v>
+        <v>0.3411541214603637</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4143584948582792</v>
+        <v>0.4154512947285476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>528</v>
@@ -3486,19 +3486,19 @@
         <v>559764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>523474</v>
+        <v>521814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>595619</v>
+        <v>592471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4400251979454387</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4114978309859402</v>
+        <v>0.4101932275574337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.468210463497017</v>
+        <v>0.4657360577110328</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>63067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49840</v>
+        <v>48982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78393</v>
+        <v>78052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.236311901583187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1867480586460875</v>
+        <v>0.1835349910692637</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2937361810709197</v>
+        <v>0.2924606617239346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>619</v>
@@ -3611,19 +3611,19 @@
         <v>665480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>632592</v>
+        <v>629187</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>699574</v>
+        <v>696122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5998821904111601</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.570235757239017</v>
+        <v>0.5671666846202417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6306157067866185</v>
+        <v>0.6275041320947171</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>679</v>
@@ -3632,19 +3632,19 @@
         <v>728547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>691485</v>
+        <v>690602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>764461</v>
+        <v>765242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5293779035881043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5024478306449173</v>
+        <v>0.5018057164485206</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5554738463038461</v>
+        <v>0.556040736175186</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>203815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188489</v>
+        <v>188830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217042</v>
+        <v>217900</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7636880984168131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7062638189290803</v>
+        <v>0.7075393382760653</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8132519413539127</v>
+        <v>0.8164650089307363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>425</v>
@@ -3682,19 +3682,19 @@
         <v>443871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>409777</v>
+        <v>413229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>476759</v>
+        <v>480164</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4001178095888399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3693842932133815</v>
+        <v>0.3724958679052831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.429764242760983</v>
+        <v>0.4328333153797584</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>630</v>
@@ -3703,19 +3703,19 @@
         <v>647686</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>611772</v>
+        <v>610991</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>684748</v>
+        <v>685631</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4706220964118956</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4445261536961538</v>
+        <v>0.4439592638248139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4975521693550827</v>
+        <v>0.4981942835514794</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1507432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1446648</v>
+        <v>1443561</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1568028</v>
+        <v>1569457</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4405235902490082</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4227603608912852</v>
+        <v>0.4218581750471113</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4582317437543043</v>
+        <v>0.4586495034769441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1773</v>
@@ -3828,19 +3828,19 @@
         <v>1924509</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1866396</v>
+        <v>1863710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1987295</v>
+        <v>1979927</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5420961113976301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5257269576872334</v>
+        <v>0.5249702551339048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5597815934607009</v>
+        <v>0.5577062084255416</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3160</v>
@@ -3849,19 +3849,19 @@
         <v>3431941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3344403</v>
+        <v>3343917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3519193</v>
+        <v>3520899</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4922438070551715</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4796882790699737</v>
+        <v>0.4796184460630412</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5047583428275123</v>
+        <v>0.5050030952708822</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1914478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1853882</v>
+        <v>1852453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1975262</v>
+        <v>1978349</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5594764097509919</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5417682562456958</v>
+        <v>0.5413504965230559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5772396391087148</v>
+        <v>0.5781418249528888</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1517</v>
@@ -3899,19 +3899,19 @@
         <v>1625616</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1562830</v>
+        <v>1570198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1683729</v>
+        <v>1686415</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4579038886023698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4402184065392989</v>
+        <v>0.4422937915744584</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4742730423127665</v>
+        <v>0.4750297448660952</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3335</v>
@@ -3920,19 +3920,19 @@
         <v>3540094</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3452842</v>
+        <v>3451136</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3627632</v>
+        <v>3628118</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5077561929448285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4952416571724877</v>
+        <v>0.4949969047291178</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5203117209300263</v>
+        <v>0.5203815539369587</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>148796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130112</v>
+        <v>129340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168909</v>
+        <v>170946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.346769070807029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3032272850392525</v>
+        <v>0.3014281649308802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3936421663740581</v>
+        <v>0.3983905998784116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -4287,19 +4287,19 @@
         <v>115255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95848</v>
+        <v>97727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133706</v>
+        <v>136188</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3320937839514485</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2761739862147313</v>
+        <v>0.2815880162875446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3852596761851689</v>
+        <v>0.3924114282222116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -4308,19 +4308,19 @@
         <v>264051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>235626</v>
+        <v>236659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292751</v>
+        <v>290596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3402070009248779</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3035845448949903</v>
+        <v>0.3049147286641674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3771847198118133</v>
+        <v>0.3744083852492341</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>280296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260183</v>
+        <v>258146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298980</v>
+        <v>299752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.653230929192971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6063578336259419</v>
+        <v>0.6016094001215887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6967727149607476</v>
+        <v>0.6985718350691198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -4358,19 +4358,19 @@
         <v>231800</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213349</v>
+        <v>210867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251207</v>
+        <v>249328</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6679062160485515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.614740323814831</v>
+        <v>0.6075885717777882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7238260137852688</v>
+        <v>0.7184119837124551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>485</v>
@@ -4379,19 +4379,19 @@
         <v>512096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>483396</v>
+        <v>485551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540521</v>
+        <v>539488</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6597929990751221</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6228152801881868</v>
+        <v>0.6255916147507659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6964154551050096</v>
+        <v>0.6950852713358325</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>124051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105699</v>
+        <v>107091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143717</v>
+        <v>144673</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3288503748047008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2802000612090763</v>
+        <v>0.2838887860777078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3809829723044155</v>
+        <v>0.3835179751526646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -4504,19 +4504,19 @@
         <v>138850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120533</v>
+        <v>120773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159240</v>
+        <v>158517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3729802630294433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3237763590144194</v>
+        <v>0.3244199896496671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4277496386294976</v>
+        <v>0.4258085121221774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -4525,19 +4525,19 @@
         <v>262902</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239129</v>
+        <v>235858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291707</v>
+        <v>291018</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3507694834784206</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3190512734675536</v>
+        <v>0.3146876254685175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3892022576586894</v>
+        <v>0.3882835148258337</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>253176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>233510</v>
+        <v>232554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271528</v>
+        <v>270136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6711496251952992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6190170276955845</v>
+        <v>0.6164820248473363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7197999387909237</v>
+        <v>0.7161112139222923</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>223</v>
@@ -4575,19 +4575,19 @@
         <v>233423</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>213033</v>
+        <v>213756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>251740</v>
+        <v>251500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6270197369705567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5722503613705027</v>
+        <v>0.5741914878778227</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6762236409855807</v>
+        <v>0.6755800103503329</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>460</v>
@@ -4596,19 +4596,19 @@
         <v>486598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>457793</v>
+        <v>458482</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>510371</v>
+        <v>513642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6492305165215794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6107977423413107</v>
+        <v>0.6117164851741664</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6809487265324463</v>
+        <v>0.6853123745314824</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>228110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>205581</v>
+        <v>205886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249829</v>
+        <v>251596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4370638000340604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3938978322008495</v>
+        <v>0.3944829559948553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4786786294757575</v>
+        <v>0.4820643379380934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -4721,19 +4721,19 @@
         <v>79450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66741</v>
+        <v>66520</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93712</v>
+        <v>92687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4782610648835371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4017541750601658</v>
+        <v>0.4004251361220413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.564113663616541</v>
+        <v>0.5579406751242535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>287</v>
@@ -4742,19 +4742,19 @@
         <v>307559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>281889</v>
+        <v>281197</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336971</v>
+        <v>336275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4470106636240282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4097016591657309</v>
+        <v>0.4086954161516732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4897581372696636</v>
+        <v>0.4887455808266056</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>293804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272085</v>
+        <v>270318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316333</v>
+        <v>316028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5629361999659396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5213213705242428</v>
+        <v>0.5179356620619066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6061021677991505</v>
+        <v>0.6055170440051447</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -4792,19 +4792,19 @@
         <v>86673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72411</v>
+        <v>73436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99382</v>
+        <v>99603</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5217389351164629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.435886336383459</v>
+        <v>0.4420593248757465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5982458249398341</v>
+        <v>0.5995748638779586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>368</v>
@@ -4813,19 +4813,19 @@
         <v>380477</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>351065</v>
+        <v>351761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>406147</v>
+        <v>406839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5529893363759717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5102418627303364</v>
+        <v>0.5112544191733944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5902983408342691</v>
+        <v>0.5913045838483268</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>498660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>465601</v>
+        <v>464536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>533271</v>
+        <v>528660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4337535137478181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4049976888802544</v>
+        <v>0.4040718257904694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4638597551731508</v>
+        <v>0.4598493598016211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -4938,19 +4938,19 @@
         <v>364973</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>336188</v>
+        <v>337983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>393028</v>
+        <v>395176</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4419216833122371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4070689066748308</v>
+        <v>0.409241509073925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4758926507152036</v>
+        <v>0.478493020002511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>817</v>
@@ -4959,19 +4959,19 @@
         <v>863632</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>815582</v>
+        <v>820769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>908079</v>
+        <v>907352</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4371682672082041</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.412845236016501</v>
+        <v>0.4154713212711655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4596670423790777</v>
+        <v>0.4592990459145871</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>650978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>616367</v>
+        <v>620978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684037</v>
+        <v>685102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5662464862521819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5361402448268493</v>
+        <v>0.5401506401983789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5950023111197456</v>
+        <v>0.5959281742095306</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>462</v>
@@ -5009,19 +5009,19 @@
         <v>460903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432848</v>
+        <v>430700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>489688</v>
+        <v>487893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5580783166877629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5241073492847963</v>
+        <v>0.5215069799974889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5929310933251691</v>
+        <v>0.5907584909260749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1084</v>
@@ -5030,19 +5030,19 @@
         <v>1111882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1067435</v>
+        <v>1068162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1159932</v>
+        <v>1154745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5628317327917959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5403329576209224</v>
+        <v>0.5407009540854129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5871547639834989</v>
+        <v>0.5845286787288344</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>259518</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>234777</v>
+        <v>235051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284594</v>
+        <v>286022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.418101802003618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3782415656312789</v>
+        <v>0.3786831878721098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4585011653388238</v>
+        <v>0.4608009004623494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>372</v>
@@ -5155,19 +5155,19 @@
         <v>406218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>378662</v>
+        <v>380243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>432941</v>
+        <v>433481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.550248806490673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.512923159140721</v>
+        <v>0.5150643444784302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5864464905718393</v>
+        <v>0.5871786205245545</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>627</v>
@@ -5176,19 +5176,19 @@
         <v>665736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>627712</v>
+        <v>628555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>706772</v>
+        <v>701914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4898901309062565</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4619093397052786</v>
+        <v>0.4625300610640822</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5200871567545718</v>
+        <v>0.5165117655942437</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>361188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>336112</v>
+        <v>334684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>385929</v>
+        <v>385655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.581898197996382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5414988346611753</v>
+        <v>0.5391990995376506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6217584343687211</v>
+        <v>0.62131681212789</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>327</v>
@@ -5226,19 +5226,19 @@
         <v>332026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>305303</v>
+        <v>304763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359582</v>
+        <v>358001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4497511935093271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4135535094281607</v>
+        <v>0.4128213794754454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.487076840859279</v>
+        <v>0.4849356555215698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>669</v>
@@ -5247,19 +5247,19 @@
         <v>693214</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>652178</v>
+        <v>657036</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>731238</v>
+        <v>730395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5101098690937435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4799128432454282</v>
+        <v>0.4834882344057562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5380906602947214</v>
+        <v>0.5374699389359178</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>60275</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47894</v>
+        <v>47173</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74405</v>
+        <v>76249</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2099116541552541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.166795172244485</v>
+        <v>0.1642837748422115</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2591216734072603</v>
+        <v>0.265542010622962</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>503</v>
@@ -5372,19 +5372,19 @@
         <v>581880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>551325</v>
+        <v>549128</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>613861</v>
+        <v>619628</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5377692332526445</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.509530967619289</v>
+        <v>0.5075002024241901</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5673260962877734</v>
+        <v>0.5726559709917302</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>559</v>
@@ -5393,19 +5393,19 @@
         <v>642155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>601914</v>
+        <v>606960</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>678633</v>
+        <v>681396</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4690102676636815</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4396194905227324</v>
+        <v>0.4433051660361233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4956526989912503</v>
+        <v>0.4976708495732516</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>226870</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212740</v>
+        <v>210896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239251</v>
+        <v>239972</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7900883458447459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7408783265927398</v>
+        <v>0.734457989377038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.833204827755515</v>
+        <v>0.8357162251577883</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>489</v>
@@ -5443,19 +5443,19 @@
         <v>500145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>468164</v>
+        <v>462397</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>530700</v>
+        <v>532897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4622307667473555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4326739037122266</v>
+        <v>0.4273440290082698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.490469032380711</v>
+        <v>0.4924997975758099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>705</v>
@@ -5464,19 +5464,19 @@
         <v>727015</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>690537</v>
+        <v>687774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>767256</v>
+        <v>762210</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5309897323363185</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5043473010087497</v>
+        <v>0.5023291504267482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5603805094772676</v>
+        <v>0.5566948339638759</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1319410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1265059</v>
+        <v>1258475</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1376287</v>
+        <v>1373773</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3896981665748983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3736454014471821</v>
+        <v>0.3717005318152013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.406497296074153</v>
+        <v>0.4057549328143943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1513</v>
@@ -5589,19 +5589,19 @@
         <v>1686626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1624344</v>
+        <v>1620273</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1744420</v>
+        <v>1746613</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4775816846222354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4599461339399949</v>
+        <v>0.4587934190071315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4939465633466995</v>
+        <v>0.4945676308431699</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2779</v>
@@ -5610,19 +5610,19 @@
         <v>3006035</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2917502</v>
+        <v>2918117</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3087480</v>
+        <v>3089767</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4345665776461273</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4217678470449291</v>
+        <v>0.4218567067008375</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4463406762310461</v>
+        <v>0.4466711921218964</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2066312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2009435</v>
+        <v>2011949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2120663</v>
+        <v>2127247</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6103018334251017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5935027039258469</v>
+        <v>0.5942450671856057</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6263545985528178</v>
+        <v>0.6282994681847986</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1813</v>
@@ -5660,19 +5660,19 @@
         <v>1844970</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1787176</v>
+        <v>1784983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1907252</v>
+        <v>1911323</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5224183153777646</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5060534366533004</v>
+        <v>0.5054323691568301</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5400538660600051</v>
+        <v>0.5412065809928686</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3771</v>
@@ -5681,19 +5681,19 @@
         <v>3911283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3829838</v>
+        <v>3827551</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3999816</v>
+        <v>3999201</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5654334223538727</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5536593237689539</v>
+        <v>0.5533288078781032</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5782321529550709</v>
+        <v>0.5781432932991624</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>251125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226472</v>
+        <v>227339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>273794</v>
+        <v>275613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4581202460521153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.413145875563533</v>
+        <v>0.414727368240402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4994733177465335</v>
+        <v>0.5027926176314912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>323</v>
@@ -6048,19 +6048,19 @@
         <v>210504</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189511</v>
+        <v>192056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227628</v>
+        <v>228858</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4324043285150933</v>
+        <v>0.4324043285150932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3892826624006434</v>
+        <v>0.394510612730485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4675797543571177</v>
+        <v>0.4701065448500157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>597</v>
@@ -6069,19 +6069,19 @@
         <v>461629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>429753</v>
+        <v>432120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>493707</v>
+        <v>492803</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4460243817619667</v>
+        <v>0.4460243817619666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4152250360419933</v>
+        <v>0.4175122267107315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.47701793812076</v>
+        <v>0.4761440728727682</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>297040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274371</v>
+        <v>272552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321693</v>
+        <v>320826</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5418797539478846</v>
+        <v>0.5418797539478847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.500526682253466</v>
+        <v>0.4972073823685088</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.586854124436467</v>
+        <v>0.5852726317595981</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>361</v>
@@ -6119,19 +6119,19 @@
         <v>276317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259193</v>
+        <v>257963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297310</v>
+        <v>294765</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5675956714849067</v>
+        <v>0.5675956714849066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5324202456428825</v>
+        <v>0.5298934551499842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6107173375993566</v>
+        <v>0.6054893872695147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>639</v>
@@ -6140,19 +6140,19 @@
         <v>573358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541280</v>
+        <v>542184</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>605234</v>
+        <v>602867</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5539756182380334</v>
+        <v>0.5539756182380333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5229820618792399</v>
+        <v>0.5238559271272323</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5847749639580067</v>
+        <v>0.5824877732892686</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>204876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183984</v>
+        <v>181408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227985</v>
+        <v>228182</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4248701580897019</v>
+        <v>0.4248701580897018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3815448211556505</v>
+        <v>0.3762037119203137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4727939386102147</v>
+        <v>0.4732020549545514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -6265,19 +6265,19 @@
         <v>193490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177181</v>
+        <v>175467</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>212041</v>
+        <v>211481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4579802327552092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4193778379307497</v>
+        <v>0.4153195903908134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5018899139299335</v>
+        <v>0.5005633276410772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>523</v>
@@ -6286,19 +6286,19 @@
         <v>398366</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>370917</v>
+        <v>372198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>426002</v>
+        <v>425468</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4403323437324983</v>
+        <v>0.4403323437324982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4099917022462019</v>
+        <v>0.4114079175794336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4708797054294813</v>
+        <v>0.4702892846352504</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>277332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>254223</v>
+        <v>254026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298224</v>
+        <v>300800</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5751298419102981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5272060613897853</v>
+        <v>0.5267979450454486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6184551788443493</v>
+        <v>0.6237962880796862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>294</v>
@@ -6336,19 +6336,19 @@
         <v>228996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210445</v>
+        <v>211005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245305</v>
+        <v>247019</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5420197672447908</v>
+        <v>0.5420197672447907</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4981100860700658</v>
+        <v>0.4994366723589226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5806221620692502</v>
+        <v>0.5846804096091865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>546</v>
@@ -6357,19 +6357,19 @@
         <v>506328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>478692</v>
+        <v>479226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>533777</v>
+        <v>532496</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5596676562675018</v>
+        <v>0.5596676562675016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5291202945705189</v>
+        <v>0.5297107153647495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.590008297753798</v>
+        <v>0.5885920824205664</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>221607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200506</v>
+        <v>200703</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242541</v>
+        <v>247615</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.47284500252331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.427820990011367</v>
+        <v>0.4282402951510244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5175104605103813</v>
+        <v>0.5283373228323883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -6482,19 +6482,19 @@
         <v>106766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95053</v>
+        <v>94806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117907</v>
+        <v>119234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5726268320807023</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.509805013430169</v>
+        <v>0.5084800616144637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6323840159366739</v>
+        <v>0.6394980897202694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>425</v>
@@ -6503,19 +6503,19 @@
         <v>328374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303521</v>
+        <v>305139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352816</v>
+        <v>351987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5012433636630758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4633072983101099</v>
+        <v>0.4657772945538528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5385527330791422</v>
+        <v>0.5372874076164874</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>247061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226127</v>
+        <v>221053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>268162</v>
+        <v>267965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.52715499747669</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4824895394896187</v>
+        <v>0.4716626771676116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5721790099886329</v>
+        <v>0.5717597048489756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -6553,19 +6553,19 @@
         <v>79683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68542</v>
+        <v>67215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91396</v>
+        <v>91643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4273731679192977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3676159840633261</v>
+        <v>0.3605019102797308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4901949865698311</v>
+        <v>0.4915199383855365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>346</v>
@@ -6574,19 +6574,19 @@
         <v>326744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302302</v>
+        <v>303131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351597</v>
+        <v>349979</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4987566363369242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4614472669208577</v>
+        <v>0.4627125923835123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5366927016898899</v>
+        <v>0.5342227054461471</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>538307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>500246</v>
+        <v>499571</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>573664</v>
+        <v>574988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.477951488357958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.444157489593951</v>
+        <v>0.4435583950857416</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5093437134292685</v>
+        <v>0.510519433492495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>706</v>
@@ -6699,19 +6699,19 @@
         <v>446075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>419063</v>
+        <v>419699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>473295</v>
+        <v>469918</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5193735356051556</v>
+        <v>0.5193735356051558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4879230035347842</v>
+        <v>0.4886636007157965</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5510665747224267</v>
+        <v>0.5471341038262653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1313</v>
@@ -6720,19 +6720,19 @@
         <v>984382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>943212</v>
+        <v>938086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1034397</v>
+        <v>1023485</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4958726496527905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4751333967758147</v>
+        <v>0.4725516667717609</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5210672628839641</v>
+        <v>0.5155704765497469</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>587973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>552616</v>
+        <v>551292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>626034</v>
+        <v>626709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.522048511642042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4906562865707313</v>
+        <v>0.4894805665075049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5558425104060489</v>
+        <v>0.5564416049142582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -6770,19 +6770,19 @@
         <v>412796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>385576</v>
+        <v>388953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439808</v>
+        <v>439172</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4806264643948442</v>
+        <v>0.4806264643948443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4489334252775734</v>
+        <v>0.4528658961737347</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5120769964652159</v>
+        <v>0.5113363992842036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1024</v>
@@ -6791,19 +6791,19 @@
         <v>1000769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>950754</v>
+        <v>961666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1041939</v>
+        <v>1047065</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5041273503472096</v>
+        <v>0.5041273503472095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4789327371160359</v>
+        <v>0.4844295234502532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5248666032241851</v>
+        <v>0.527448333228239</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>291470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>265877</v>
+        <v>266059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>318607</v>
+        <v>318482</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5177687199232296</v>
+        <v>0.5177687199232297</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4723057947871049</v>
+        <v>0.4726278761825665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5659746274190109</v>
+        <v>0.565751984587284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>844</v>
@@ -6916,19 +6916,19 @@
         <v>502371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>478441</v>
+        <v>479524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>527922</v>
+        <v>526321</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6082293458594219</v>
+        <v>0.608229345859422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5792569800087967</v>
+        <v>0.5805679757995788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6391641310428473</v>
+        <v>0.6372254537041869</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1155</v>
@@ -6937,19 +6937,19 @@
         <v>793841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>755698</v>
+        <v>758321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>825736</v>
+        <v>828052</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5715645356050213</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5441013757280395</v>
+        <v>0.5459897818543719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5945282868433094</v>
+        <v>0.5961958290364958</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>271465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>244328</v>
+        <v>244453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297058</v>
+        <v>296876</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4822312800767702</v>
+        <v>0.4822312800767704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.434025372580989</v>
+        <v>0.4342480154127159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5276942052128947</v>
+        <v>0.5273721238174334</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>438</v>
@@ -6987,19 +6987,19 @@
         <v>323586</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>298035</v>
+        <v>299636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>347516</v>
+        <v>346433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3917706541405781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3608358689571528</v>
+        <v>0.3627745462958132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4207430199912034</v>
+        <v>0.4194320242004212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>670</v>
@@ -7008,19 +7008,19 @@
         <v>595051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>563156</v>
+        <v>560840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>633194</v>
+        <v>630571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4284354643949788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4054717131566904</v>
+        <v>0.4038041709635042</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4558986242719604</v>
+        <v>0.4540102181456281</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>47600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31048</v>
+        <v>30081</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69663</v>
+        <v>67657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2006519064313506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1308779819652644</v>
+        <v>0.1268029632122792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2936535438824319</v>
+        <v>0.2852001173732489</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>762</v>
@@ -7133,19 +7133,19 @@
         <v>462794</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>435422</v>
+        <v>433248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>493408</v>
+        <v>492545</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5541225215469403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.521348023193645</v>
+        <v>0.5187458029487976</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5907775331795336</v>
+        <v>0.5897437036114599</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>791</v>
@@ -7154,19 +7154,19 @@
         <v>510395</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>476428</v>
+        <v>473553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>550647</v>
+        <v>546458</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4759314430507008</v>
+        <v>0.475931443050701</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.444258024024703</v>
+        <v>0.441577787787275</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5134662038015203</v>
+        <v>0.5095597387359407</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>189628</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167565</v>
+        <v>169571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206180</v>
+        <v>207147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7993480935686496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7063464561175677</v>
+        <v>0.714799882626751</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8691220180347353</v>
+        <v>0.8731970367877211</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>382</v>
@@ -7204,19 +7204,19 @@
         <v>372390</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341776</v>
+        <v>342639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>399762</v>
+        <v>401936</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4458774784530597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4092224668204665</v>
+        <v>0.4102562963885402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4786519768063549</v>
+        <v>0.4812541970512025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>465</v>
@@ -7225,19 +7225,19 @@
         <v>562017</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521765</v>
+        <v>525954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>595984</v>
+        <v>598859</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5240685569492991</v>
+        <v>0.5240685569492992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4865337961984797</v>
+        <v>0.4904402612640592</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5557419759752968</v>
+        <v>0.5584222122127246</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1554986</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1492870</v>
+        <v>1487200</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1619852</v>
+        <v>1613132</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4539464413810982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.435812884885028</v>
+        <v>0.4341575612593666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4728825864999594</v>
+        <v>0.470921000051979</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3106</v>
@@ -7350,19 +7350,19 @@
         <v>1922000</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1872130</v>
+        <v>1868336</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1972830</v>
+        <v>1976084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5315606035918222</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5177682117721865</v>
+        <v>0.5167188807178783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5456183598883623</v>
+        <v>0.546518408409625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4804</v>
@@ -7371,19 +7371,19 @@
         <v>3476987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3392022</v>
+        <v>3390811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3561550</v>
+        <v>3561765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4938022585744242</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4817355410738327</v>
+        <v>0.4815636225527544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5058120043142291</v>
+        <v>0.5058425186398916</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1870498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1805632</v>
+        <v>1812352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1932614</v>
+        <v>1938284</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5460535586189018</v>
+        <v>0.5460535586189019</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.527117413500041</v>
+        <v>0.529078999948021</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5641871151149722</v>
+        <v>0.5658424387406334</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2105</v>
@@ -7421,19 +7421,19 @@
         <v>1693769</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1642939</v>
+        <v>1639685</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1743639</v>
+        <v>1747433</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4684393964081777</v>
+        <v>0.4684393964081778</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4543816401116378</v>
+        <v>0.4534815915903752</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4822317882278137</v>
+        <v>0.4832811192821219</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3690</v>
@@ -7442,19 +7442,19 @@
         <v>3564266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3479703</v>
+        <v>3479488</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3649231</v>
+        <v>3650442</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5061977414255758</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4941879956857709</v>
+        <v>0.4941574813601085</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5182644589261675</v>
+        <v>0.5184363774472455</v>
       </c>
     </row>
     <row r="24">
